--- a/Mag/Optimization of working energysystems/Homework 2/Find_losses/СШ1 итог.xlsx
+++ b/Mag/Optimization of working energysystems/Homework 2/Find_losses/СШ1 итог.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\Learning\Mag\Optimization of working energysystems\Homework 2\Find_losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27590E66-E8E7-4124-941C-91F8ED50C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A82A3-20B1-4DE6-BE9C-62A567D00ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22980" yWindow="1440" windowWidth="22965" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,74 +236,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -312,22 +252,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AI32"/>
     </sheetView>
   </sheetViews>
@@ -646,2680 +574,2705 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
     </row>
     <row r="2" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>2176</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>211.262</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>0.6</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <v>26.779</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <f>C7</f>
         <v>4996</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <f>SUM(H3:H8)</f>
         <v>439.19899999999996</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="3">
         <f>(J3/(I3+J3))*100</f>
         <v>8.0806424934947181</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="2">
         <v>988</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="2">
         <v>95.921999999999997</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="2">
         <v>0.3</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="2">
         <v>2.76</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="4">
         <v>4996</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="3">
         <f>SUM(T3:T8)</f>
         <v>471.79700000000003</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="3">
         <f>(V3/(U3+V3))*100</f>
         <v>8.6286487958495908</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="3" t="s">
+      <c r="X3" s="2"/>
+      <c r="Y3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="2">
         <v>3164</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="2">
         <v>307.18400000000003</v>
       </c>
-      <c r="AC3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="2">
         <v>56.616999999999997</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="4">
         <v>4996</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="3">
         <f>SUM(AF3:AF8)</f>
         <v>357.13</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="3">
         <f>(AH3/(AG3+AH3))*100</f>
         <v>6.6714240080102671</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>1212</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>117.67</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="6" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="2">
         <v>2200</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="2">
         <v>213.59200000000001</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="6" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="6" t="s">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="2">
         <v>2176</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="2">
         <v>211.262</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="2">
         <v>0.3</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="2">
         <v>13.388999999999999</v>
       </c>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>3916</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>0.9</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="2">
         <v>3164</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="2">
         <v>307.18400000000003</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="6" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="2">
         <v>0.6</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="2">
         <v>56.616999999999997</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="6" t="s">
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="2">
         <v>3740</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="2">
         <v>363.10700000000003</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>988</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>95.921999999999997</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="6" t="s">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="2">
         <v>4996</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="2">
         <v>1.2</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="2">
         <v>282.327</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="6" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="2">
         <v>964</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="AC6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AC6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>4996</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="2">
         <v>1.2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>282.327</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="6" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="2">
         <v>576</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="6" t="s">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="2">
         <v>4996</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="AC7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="2">
         <v>1.2</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="2">
         <v>282.327</v>
       </c>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>576</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="6" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="2">
         <v>3916</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="6" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="2">
         <v>0.9</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="6" t="s">
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="2">
         <v>752</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="2">
         <v>73.010000000000005</v>
       </c>
-      <c r="AC8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AC8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="2">
         <v>0.9</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="2">
         <v>4.7969999999999997</v>
       </c>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>2176</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>211.262</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>0.6</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>26.779</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="3">
         <v>4996</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <f t="shared" ref="J9" si="0">SUM(H9:H14)</f>
         <v>387.35700000000003</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <f t="shared" ref="K9" si="1">(J9/(I9+J9))*100</f>
         <v>7.1954544348442813</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="2">
         <v>3164</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="2">
         <v>307.18400000000003</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="6" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
         <v>4996</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="3">
         <f t="shared" ref="V9" si="2">SUM(T9:T14)</f>
         <v>425.80899999999997</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="3">
         <f t="shared" ref="W9" si="3">(V9/(U9+V9))*100</f>
         <v>7.8536333537385765</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="3" t="s">
+      <c r="X9" s="2"/>
+      <c r="Y9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="Z9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="2">
         <v>1564</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="2">
         <v>151.845</v>
       </c>
-      <c r="AC9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AC9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="2">
         <v>0.3</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="2">
         <v>6.9169999999999998</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="4">
         <v>4996</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AH9" s="3">
         <f t="shared" ref="AH9" si="4">SUM(AF9:AF14)</f>
         <v>541.40599999999995</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AI9" s="3">
         <f t="shared" ref="AI9" si="5">(AH9/(AG9+AH9))*100</f>
         <v>9.7772494919101103</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>1212</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>117.67</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="2">
         <v>2176</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="2">
         <v>211.262</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="2">
         <v>0.3</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="2">
         <v>13.388999999999999</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="6" t="s">
+      <c r="U10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="2">
         <v>2776</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="2">
         <v>269.51499999999999</v>
       </c>
-      <c r="AC10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AC10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AE10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>1564</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>151.845</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="6" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="2">
         <v>964</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="6" t="s">
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="2">
         <v>576</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="AC11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AC11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <v>988</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <v>95.921999999999997</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="2">
         <v>0.6</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="2">
         <v>5.5209999999999999</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="6" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="2">
         <v>4996</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="6" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="2">
         <v>1.2</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="2">
         <v>282.327</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="6" t="s">
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="2">
         <v>3740</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="2">
         <v>363.10700000000003</v>
       </c>
-      <c r="AC12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AC12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="2">
         <v>79.108000000000004</v>
       </c>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>4996</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="2">
         <v>1.2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
         <v>282.327</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="6" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="2">
         <v>576</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="6" t="s">
+      <c r="Q13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="6" t="s">
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="2">
         <v>4492</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="AC13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AC13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="2">
         <v>0.9</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="2">
         <v>171.178</v>
       </c>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>2928</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>284.27199999999999</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <v>0.9</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="2">
         <v>72.73</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="6" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="2">
         <v>3916</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="6" t="s">
+      <c r="Q14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="2">
         <v>0.9</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="6" t="s">
+      <c r="U14" s="4"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="2">
         <v>4996</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="AC14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AC14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="2">
         <v>1.2</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="2">
         <v>282.327</v>
       </c>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>2176</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>211.262</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="2">
         <v>0.6</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="2">
         <v>26.779</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="3">
         <v>4996</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <f t="shared" ref="J15" si="6">SUM(H15:H20)</f>
         <v>482.15999999999997</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <f t="shared" ref="K15" si="7">(J15/(I15+J15))*100</f>
         <v>8.8014953926135782</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="2">
         <v>2200</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="2">
         <v>213.59200000000001</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="6" t="s">
+      <c r="Q15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="2">
         <v>0.6</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="2">
         <v>27.373000000000001</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="4">
         <v>4996</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="3">
         <f t="shared" ref="V15" si="8">SUM(T15:T20)</f>
         <v>344.09100000000001</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="3">
         <f t="shared" ref="W15" si="9">(V15/(U15+V15))*100</f>
         <v>6.4435418797170314</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="3" t="s">
+      <c r="X15" s="2"/>
+      <c r="Y15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z15" s="6" t="s">
+      <c r="Z15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="2">
         <v>3916</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="AC15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AC15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="2">
         <v>86.727999999999994</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="4">
         <v>4996</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AH15" s="3">
         <f t="shared" ref="AH15" si="10">SUM(AF15:AF20)</f>
         <v>396.49599999999998</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AI15" s="3">
         <f t="shared" ref="AI15" si="11">(AH15/(AG15+AH15))*100</f>
         <v>7.3527360984597845</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="2">
         <v>1212</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>117.67</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="6" t="s">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="2">
         <v>1212</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="2">
         <v>117.67</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="6" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="2">
         <v>0.3</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="2">
         <v>4.1539999999999999</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="6" t="s">
+      <c r="U16" s="4"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="2">
         <v>2928</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="2">
         <v>284.27199999999999</v>
       </c>
-      <c r="AC16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AC16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AE16" s="2">
         <v>0.3</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AF16" s="2">
         <v>24.242999999999999</v>
       </c>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>576</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="2">
         <v>0.6</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="6" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="2">
         <v>2776</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="2">
         <v>269.51499999999999</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="6" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="6" t="s">
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="2">
         <v>4492</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="AC17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AC17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <v>1564</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>151.845</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="6" t="s">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="2">
         <v>4996</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="6" t="s">
+      <c r="Q18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="2">
         <v>1.2</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="2">
         <v>282.327</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="6" t="s">
+      <c r="U18" s="4"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="2">
         <v>1716</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="2">
         <v>166.602</v>
       </c>
-      <c r="AC18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AC18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AE18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>4492</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="2">
         <v>0.9</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="2">
         <v>171.178</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="6" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="2">
         <v>1716</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="2">
         <v>166.602</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="6" t="s">
+      <c r="Q19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="2">
         <v>0.9</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="2">
         <v>24.981000000000002</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="6" t="s">
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="2">
         <v>752</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="2">
         <v>73.010000000000005</v>
       </c>
-      <c r="AC19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AC19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="2">
         <v>3.198</v>
       </c>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="2">
         <v>4996</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="2">
         <v>1.2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="2">
         <v>282.327</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="6" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="2">
         <v>964</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="6" t="s">
+      <c r="Q20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="2">
         <v>0.6</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="2">
         <v>5.2560000000000002</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="6" t="s">
+      <c r="U20" s="4"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="2">
         <v>4996</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="AC20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AC20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AE20" s="2">
         <v>1.2</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AF20" s="2">
         <v>282.327</v>
       </c>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="2">
         <v>2176</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="2">
         <v>211.262</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="2">
         <v>0.6</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="2">
         <v>26.779</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="3">
         <v>4996</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <f t="shared" ref="J21" si="12">SUM(H21:H26)</f>
         <v>395.834</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <f t="shared" ref="K21" si="13">(J21/(I21+J21))*100</f>
         <v>7.3413610285479862</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="2">
         <v>2776</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="2">
         <v>269.51499999999999</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="6" t="s">
+      <c r="Q21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="8">
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
         <v>4996</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="3">
         <f t="shared" ref="V21" si="14">SUM(T21:T26)</f>
         <v>464.791</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="3">
         <f t="shared" ref="W21" si="15">(V21/(U21+V21))*100</f>
         <v>8.5114226125848802</v>
       </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="3" t="s">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="Z21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="2">
         <v>3740</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="2">
         <v>363.10700000000003</v>
       </c>
-      <c r="AC21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AC21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AE21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="8">
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
         <v>4996</v>
       </c>
-      <c r="AH21" s="7">
+      <c r="AH21" s="3">
         <f t="shared" ref="AH21" si="16">SUM(AF21:AF26)</f>
         <v>468.77</v>
       </c>
-      <c r="AI21" s="7">
+      <c r="AI21" s="3">
         <f t="shared" ref="AI21" si="17">(AH21/(AG21+AH21))*100</f>
         <v>8.57803713605513</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="2">
         <v>1212</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="2">
         <v>117.67</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="6" t="s">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="2">
         <v>1212</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="2">
         <v>117.67</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="6" t="s">
+      <c r="Q22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="2">
         <v>0.3</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="2">
         <v>4.1539999999999999</v>
       </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="6" t="s">
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="2">
         <v>2176</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="2">
         <v>211.262</v>
       </c>
-      <c r="AC22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AC22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AE22" s="2">
         <v>0.3</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AF22" s="2">
         <v>13.388999999999999</v>
       </c>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="2">
         <v>4492</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="6" t="s">
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="2">
         <v>576</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="Q23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R23" s="6" t="s">
+      <c r="Q23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="2">
         <v>0.6</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="6" t="s">
+      <c r="U23" s="4"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AA23" s="2">
         <v>576</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AB23" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="AC23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AC23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AE23" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF23" s="6">
+      <c r="AF23" s="2">
         <v>1.8759999999999999</v>
       </c>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="2">
         <v>3916</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="2">
         <v>0.6</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="2">
         <v>86.727999999999994</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="6" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="2">
         <v>4492</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="Q24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="6" t="s">
+      <c r="Q24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="2">
         <v>0.9</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="2">
         <v>171.178</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="6" t="s">
+      <c r="U24" s="4"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="2">
         <v>964</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="AC24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AC24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AE24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="2">
         <v>2928</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="2">
         <v>284.27199999999999</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="6" t="s">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="2">
         <v>964</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="Q25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="2">
         <v>0.6</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="2">
         <v>5.2560000000000002</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="6" t="s">
+      <c r="U25" s="4"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="2">
         <v>4492</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB25" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="AC25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AC25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AE25" s="2">
         <v>0.9</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AF25" s="2">
         <v>171.178</v>
       </c>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="2">
         <v>4996</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="2">
         <v>1.2</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="2">
         <v>282.327</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="6" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="2">
         <v>4996</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="Q26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="6" t="s">
+      <c r="Q26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="2">
         <v>1.2</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="2">
         <v>282.327</v>
       </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="6" t="s">
+      <c r="U26" s="4"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="2">
         <v>4996</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="AC26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AC26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AE26" s="2">
         <v>1.2</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AF26" s="2">
         <v>282.327</v>
       </c>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="2">
         <v>2200</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="2">
         <v>213.59200000000001</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>4996</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="3">
         <f t="shared" ref="J27" si="18">SUM(H27:H32)</f>
         <v>421.82999999999993</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="3">
         <f t="shared" ref="K27" si="19">(J27/(I27+J27))*100</f>
         <v>7.7859585848946891</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="3" t="s">
+      <c r="L27" s="2"/>
+      <c r="M27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="2">
         <v>3916</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="Q27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R27" s="6" t="s">
+      <c r="Q27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="2">
         <v>0.6</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="2">
         <v>86.727999999999994</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="4">
         <v>4996</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="3">
         <f t="shared" ref="V27" si="20">SUM(T27:T32)</f>
         <v>378.46499999999997</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="3">
         <f t="shared" ref="W27" si="21">(V27/(U27+V27))*100</f>
         <v>7.0419102180403064</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="3" t="s">
+      <c r="X27" s="2"/>
+      <c r="Y27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="2">
         <v>3916</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AB27" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="AC27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AC27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AE27" s="2">
         <v>0.6</v>
       </c>
-      <c r="AF27" s="6">
+      <c r="AF27" s="2">
         <v>86.727999999999994</v>
       </c>
-      <c r="AG27" s="8">
+      <c r="AG27" s="4">
         <v>4996</v>
       </c>
-      <c r="AH27" s="7">
+      <c r="AH27" s="3">
         <f t="shared" ref="AH27" si="22">SUM(AF27:AF32)</f>
         <v>382.44399999999996</v>
       </c>
-      <c r="AI27" s="7">
+      <c r="AI27" s="3">
         <f t="shared" ref="AI27" si="23">(AH27/(AG27+AH27))*100</f>
         <v>7.1106810817403696</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <v>1212</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <v>117.67</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="2">
         <v>0.3</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="2">
         <v>4.1539999999999999</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="6" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="2">
         <v>1212</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="2">
         <v>117.67</v>
       </c>
-      <c r="Q28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="6" t="s">
+      <c r="Q28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="2">
         <v>0.3</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="2">
         <v>4.1539999999999999</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="6" t="s">
+      <c r="U28" s="4"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AA28" s="2">
         <v>2176</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AB28" s="2">
         <v>211.262</v>
       </c>
-      <c r="AC28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="6" t="s">
+      <c r="AC28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AE28" s="2">
         <v>0.3</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AF28" s="2">
         <v>13.388999999999999</v>
       </c>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <v>3916</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <v>380.19400000000002</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="2">
         <v>0.9</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="6" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="2">
         <v>4492</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="Q29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="6" t="s">
+      <c r="Q29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-      <c r="T29" s="6">
-        <v>0</v>
-      </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="6" t="s">
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AA29" s="2">
         <v>4492</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB29" s="2">
         <v>436.11700000000002</v>
       </c>
-      <c r="AC29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD29" s="6" t="s">
+      <c r="AC29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <v>4996</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="2">
         <v>1.2</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="2">
         <v>282.327</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="6" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="2">
         <v>1716</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="2">
         <v>166.602</v>
       </c>
-      <c r="Q30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="6" t="s">
+      <c r="Q30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0</v>
-      </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="6" t="s">
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="2">
         <v>964</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="AC30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AC30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AE30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="2">
         <v>576</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="2">
         <v>55.921999999999997</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="6" t="s">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="2">
         <v>964</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="Q31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="6" t="s">
+      <c r="Q31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="2">
         <v>0.6</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="2">
         <v>5.2560000000000002</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="6" t="s">
+      <c r="U31" s="4"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AA31" s="2">
         <v>752</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AB31" s="2">
         <v>73.010000000000005</v>
       </c>
-      <c r="AC31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AC31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AE31" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="2">
         <v>964</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="2">
         <v>93.591999999999999</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="2">
         <v>0.6</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2">
         <v>5.2560000000000002</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="6" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="2">
         <v>4996</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="Q32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R32" s="6" t="s">
+      <c r="Q32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="2">
         <v>1.2</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="2">
         <v>282.327</v>
       </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="6" t="s">
+      <c r="U32" s="4"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AA32" s="2">
         <v>4996</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB32" s="2">
         <v>485.04899999999998</v>
       </c>
-      <c r="AC32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AC32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE32" s="6">
+      <c r="AE32" s="2">
         <v>1.2</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AF32" s="2">
         <v>282.327</v>
       </c>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AH21:AH26"/>
-    <mergeCell ref="AI21:AI26"/>
-    <mergeCell ref="AH27:AH32"/>
-    <mergeCell ref="AI27:AI32"/>
-    <mergeCell ref="AH3:AH8"/>
-    <mergeCell ref="AI3:AI8"/>
-    <mergeCell ref="AH9:AH14"/>
-    <mergeCell ref="AI9:AI14"/>
-    <mergeCell ref="AH15:AH20"/>
-    <mergeCell ref="AI15:AI20"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="Y3:Y8"/>
+    <mergeCell ref="Y9:Y14"/>
+    <mergeCell ref="Y15:Y20"/>
+    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="M27:M32"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="K27:K32"/>
+    <mergeCell ref="U3:U8"/>
+    <mergeCell ref="U9:U14"/>
+    <mergeCell ref="U15:U20"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="U27:U32"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="J9:J14"/>
     <mergeCell ref="V21:V26"/>
     <mergeCell ref="W21:W26"/>
     <mergeCell ref="V27:V32"/>
@@ -3335,42 +3288,17 @@
     <mergeCell ref="W9:W14"/>
     <mergeCell ref="V15:V20"/>
     <mergeCell ref="W15:W20"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="K27:K32"/>
-    <mergeCell ref="U3:U8"/>
-    <mergeCell ref="U9:U14"/>
-    <mergeCell ref="U15:U20"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="U27:U32"/>
     <mergeCell ref="Y27:Y32"/>
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="M27:M32"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="Y3:Y8"/>
-    <mergeCell ref="Y9:Y14"/>
-    <mergeCell ref="Y15:Y20"/>
-    <mergeCell ref="Y21:Y26"/>
+    <mergeCell ref="AH21:AH26"/>
+    <mergeCell ref="AI21:AI26"/>
+    <mergeCell ref="AH27:AH32"/>
+    <mergeCell ref="AI27:AI32"/>
+    <mergeCell ref="AH3:AH8"/>
+    <mergeCell ref="AI3:AI8"/>
+    <mergeCell ref="AH9:AH14"/>
+    <mergeCell ref="AI9:AI14"/>
+    <mergeCell ref="AH15:AH20"/>
+    <mergeCell ref="AI15:AI20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
